--- a/src/empty_2025-2026.xlsx
+++ b/src/empty_2025-2026.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64148738-2167-4918-90A8-080735AC3F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADB69AB-F35D-425B-917C-70E09C42182D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="488" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ΜΑΘΗΤΕΣ" sheetId="1" r:id="rId1"/>
@@ -290,7 +290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,6 +460,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -469,22 +472,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -503,20 +503,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Βασικό_Φύλλο1" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
     <cellStyle name="Κανονικό 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Κανονικό 10 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Κανονικό 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
@@ -531,11 +531,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF99CCFF"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3156,6 +3151,26 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{25CE10AA-E3D2-4891-BF99-49D1A1565C98}">
+  <we:reference id="wa104380862" version="3.0.0.0" store="el-GR" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa104380862" version="3.0.0.0" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Φύλλο1"/>
@@ -3164,7 +3179,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G2" sqref="G2"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3179,278 +3194,278 @@
     <col min="10" max="10" width="21.5703125" style="1" customWidth="1"/>
     <col min="11" max="11" width="22.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="2" customWidth="1"/>
-    <col min="13" max="14" width="12.42578125" style="6" customWidth="1"/>
-    <col min="15" max="17" width="10.42578125" style="5" customWidth="1"/>
+    <col min="13" max="14" width="12.42578125" style="8" customWidth="1"/>
+    <col min="15" max="17" width="10.42578125" style="6" customWidth="1"/>
     <col min="18" max="18" width="10.42578125" style="2" customWidth="1"/>
     <col min="19" max="19" width="27.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="54.5703125" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="9" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:21" s="26" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:21" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="28" t="s">
+      <c r="N2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="23"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="7"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="10"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="23"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="7"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="23"/>
-      <c r="L5" s="4"/>
+      <c r="L5" s="5"/>
       <c r="T5" s="25"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="23"/>
-      <c r="L6" s="4"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="23"/>
-      <c r="L7" s="4"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="23"/>
-      <c r="L8" s="4"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="23"/>
-      <c r="L9" s="4"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="23"/>
-      <c r="L10" s="4"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="23"/>
-      <c r="L11" s="4"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="23"/>
-      <c r="L12" s="4"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="23"/>
-      <c r="L13" s="4"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
       <c r="C14" s="23"/>
-      <c r="L14" s="4"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="23"/>
-      <c r="L15" s="4"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
       <c r="C16" s="23"/>
-      <c r="L16" s="4"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
       <c r="C17" s="23"/>
-      <c r="L17" s="4"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
       <c r="C18" s="23"/>
-      <c r="L18" s="4"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
       <c r="C19" s="23"/>
-      <c r="L19" s="4"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
       <c r="C20" s="23"/>
-      <c r="L20" s="4"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
       <c r="C21" s="23"/>
-      <c r="L21" s="4"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="23"/>
-      <c r="L22" s="4"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="23"/>
-      <c r="L23" s="4"/>
+      <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L24" s="4"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L25" s="4"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L26" s="4"/>
+      <c r="L26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3470,8 +3485,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="13.85546875" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="5" width="13.85546875" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.35">
@@ -3515,7 +3530,7 @@
       <c r="B3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D3" s="21" t="s">
@@ -3530,7 +3545,7 @@
       <c r="B4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D4" s="21" t="s">
